--- a/ourCosts.xlsx
+++ b/ourCosts.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,42 +425,64 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>45090</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>Commodity/Service</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Group</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>32000</t>
+          <t>Price</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45090</v>
+        <v>45095</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>music class</t>
+          <t>milk</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>32000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45095</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>headset</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Entertainment &amp; Welfare</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>850000</t>
         </is>
       </c>
     </row>

--- a/ourCosts.xlsx
+++ b/ourCosts.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -48,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,46 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>45095</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>milk</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45095</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>headset</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Entertainment &amp; Welfare</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>850000</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ourCosts.xlsx
+++ b/ourCosts.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,28 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Commodity/Service</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ourCosts.xlsx
+++ b/ourCosts.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,28 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Commodity/Service</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Group</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
